--- a/medicine/Nettoyage et hygiène/Cercle_de_Sinner/Cercle_de_Sinner.xlsx
+++ b/medicine/Nettoyage et hygiène/Cercle_de_Sinner/Cercle_de_Sinner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,14 +518,16 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cercle de Sinner, aussi connu sous le nom de cercle de facteurs de Sinner, est un concept utilisé principalement dans le domaine du nettoyage et de la détergence. Il a été introduit par le chimiste allemand Herbert Sinner en 1959, travaillant à l'époque pour Henkel. Ce modèle explique les quatre facteurs principaux qui influencent l'efficacité du nettoyage. Les quatre éléments du cercle de Sinner sont :
 Chimie : cela se réfère aux détergents utilisés pour le nettoyage. Les agents chimiques jouent un rôle crucial en aidant à dissoudre la saleté et à faciliter son enlèvement.
 Température : la chaleur peut accélérer les réactions chimiques et aider à dissoudre les graisses et autres résidus plus efficacement.
 Mécanique : cela implique l'agitation physique ou le frottement utilisé pour déloger la saleté.
 Temps : la durée pendant laquelle les agents de nettoyage sont en contact avec la surface à nettoyer.
-Selon le cercle de Sinner[1], l'efficacité du nettoyage peut être améliorée en optimisant ces quatre facteurs. Par exemple, si on ne peut pas utiliser un détergent très puissant pour des raisons de sécurité ou de coût, on peut compenser en augmentant la température, en prolongeant le temps de nettoyage, ou en utilisant plus d'agitation mécanique.
+Selon le cercle de Sinner, l'efficacité du nettoyage peut être améliorée en optimisant ces quatre facteurs. Par exemple, si on ne peut pas utiliser un détergent très puissant pour des raisons de sécurité ou de coût, on peut compenser en augmentant la température, en prolongeant le temps de nettoyage, ou en utilisant plus d'agitation mécanique.
 Ce modèle est particulièrement utile pour équilibrer ces variables afin de maximiser l'efficacité tout en minimisant les coûts et l'impact environnemental.
 </t>
         </is>
@@ -543,12 +557,14 @@
           <t>Application pratique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le cercle Théorique de Sinner propose une combinaison égale des quatre éléments que sont l'action mécanique, la chaleur, le temps et la chimie[2].
-Si l'on applique cette théorique au lave-vaisselle et que l'on analyse son processus de nettoyage sous le prisme du cercle de Sinner, on considère seuls trois facteurs interviennent : le temps, qui est le facteur le plus important (les cycles de lave-vaisselle peuvent durer plusieurs heures pour une efficacité maximale), puis de la chaleur et de la chimie à parts égales[3].
-On peut réfléchir de la même manière concernant le Karcher : cette fois-ci, seuls deux facteurs interviennent dans le processus de nettoyage : l'action mécanique, largement majoritaire puisque c'est la puissance de projection de l'eau qui va rendre le nettoyage par karcher très efficace, ainsi que le temps[4].
+Le cercle Théorique de Sinner propose une combinaison égale des quatre éléments que sont l'action mécanique, la chaleur, le temps et la chimie.
+Si l'on applique cette théorique au lave-vaisselle et que l'on analyse son processus de nettoyage sous le prisme du cercle de Sinner, on considère seuls trois facteurs interviennent : le temps, qui est le facteur le plus important (les cycles de lave-vaisselle peuvent durer plusieurs heures pour une efficacité maximale), puis de la chaleur et de la chimie à parts égales.
+On peut réfléchir de la même manière concernant le Karcher : cette fois-ci, seuls deux facteurs interviennent dans le processus de nettoyage : l'action mécanique, largement majoritaire puisque c'est la puissance de projection de l'eau qui va rendre le nettoyage par karcher très efficace, ainsi que le temps.
 </t>
         </is>
       </c>
@@ -577,12 +593,14 @@
           <t>Innovation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au cours du XXe siècle, presque tous les domaines techniques ont connu des avancées significatives. Le téléphone inventé par Alexander Graham Bell s'est métamorphosé en smartphone multifonctionnel, les trains à vapeur ont évolué en trains à grande vitesse (TGV), et les rudimentaires avions des frères Wright ont ouvert la voie à des voyages interplanétaires, illustrés par des missions telles que celle de la sonde Voyager 1, qui a quitté notre système solaire. En revanche, malgré ces progrès fulgurants, certaines activités quotidiennes comme le nettoyage n'ont guère évolué. La méthode traditionnelle de nettoyage à l'éponge est restée largement inchangée, reflétant un manque général d'innovation dans ce secteur[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours du XXe siècle, presque tous les domaines techniques ont connu des avancées significatives. Le téléphone inventé par Alexander Graham Bell s'est métamorphosé en smartphone multifonctionnel, les trains à vapeur ont évolué en trains à grande vitesse (TGV), et les rudimentaires avions des frères Wright ont ouvert la voie à des voyages interplanétaires, illustrés par des missions telles que celle de la sonde Voyager 1, qui a quitté notre système solaire. En revanche, malgré ces progrès fulgurants, certaines activités quotidiennes comme le nettoyage n'ont guère évolué. La méthode traditionnelle de nettoyage à l'éponge est restée largement inchangée, reflétant un manque général d'innovation dans ce secteur.
 Cette stagnation a indirectement encouragé l'émergence et l'adoption de solutions à usage unique pour faciliter le nettoyage, ce qui a entraîné des conséquences environnementales majeures. La pollution plastique des océans et la présence de microplastiques dans l'eau potable sont quelques-uns des problèmes écologiques graves résultant de cette tendance. Ces impacts soulignent une tendance de l'humanité à privilégier le développement des technologies qui suscitent l'intérêt ou le plaisir, laissant de côté les tâches jugées moins attrayantes comme le nettoyage.
 Aujourd'hui, des entreprises mettent l'innovation dans le nettoyage au cœur de leur mission, justement pour contribuer à l'éradication de l'usage unique. C'est le cas de la start-up auum, qui a développé une technologie brevetée de vapeur sèche qui permet un nettoyage ultra efficace et écologique.
-Auum, via son premier produit commercialisé la auum-S[6] utilise trois éléments du cercle de Sinner : les principaux sont l'action mécanique et la chaleur qui permettent très largement l'efficacité du nettoyage. Enfin, la machine nécessite également un peu de temps (une vingtaine de secondes en l'occurrence) pour parfaire le nettoyage.
+Auum, via son premier produit commercialisé la auum-S utilise trois éléments du cercle de Sinner : les principaux sont l'action mécanique et la chaleur qui permettent très largement l'efficacité du nettoyage. Enfin, la machine nécessite également un peu de temps (une vingtaine de secondes en l'occurrence) pour parfaire le nettoyage.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Articles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Potentiel hydrogène
 Propreté</t>
